--- a/USE_IMDB/results_modelUSE/stuf.xlsx
+++ b/USE_IMDB/results_modelUSE/stuf.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54363689-40EF-4DAB-914D-5575CA7730B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE3CBA8-EA63-4A97-89B2-73C6CB663095}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>num_aug</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>training_set=400000</t>
+  </si>
+  <si>
+    <t>s/epoch</t>
   </si>
 </sst>
 </file>
@@ -1440,6 +1443,347 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>num_aug vs s/epoch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$2:$V$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F68E-49BF-A1DF-97418B357E0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="647300640"/>
+        <c:axId val="647303920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="647300640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647303920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="647303920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647300640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1600,6 +1944,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3110,6 +3494,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3758,6 +4645,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{945470F4-35D4-4B65-9064-2416EA10E21D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4024,21 +4947,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" customWidth="1"/>
     <col min="4" max="4" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4081,8 +5004,14 @@
       <c r="R1" t="s">
         <v>6</v>
       </c>
+      <c r="V1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4116,8 +5045,14 @@
       <c r="Q2" s="1">
         <v>0.89500000000000002</v>
       </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>107</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4151,8 +5086,14 @@
       <c r="Q3">
         <v>0.91083333333333305</v>
       </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>162</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4186,8 +5127,14 @@
       <c r="Q4">
         <v>0.92142666666030804</v>
       </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>211</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4221,8 +5168,14 @@
       <c r="Q5">
         <v>0.92796666666666605</v>
       </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>261</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C6">
         <v>25</v>
       </c>
@@ -4250,8 +5203,14 @@
       <c r="Q6">
         <v>0.94016247464309799</v>
       </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>313</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4285,8 +5244,14 @@
       <c r="Q7">
         <v>0.97775259283244897</v>
       </c>
+      <c r="V7">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <v>365</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C8">
         <v>50</v>
       </c>
@@ -4317,8 +5282,14 @@
       <c r="R8" t="s">
         <v>10</v>
       </c>
+      <c r="V8">
+        <v>9</v>
+      </c>
+      <c r="W8">
+        <v>525</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C9">
         <v>50</v>
       </c>

--- a/USE_IMDB/results_modelUSE/stuf.xlsx
+++ b/USE_IMDB/results_modelUSE/stuf.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE3CBA8-EA63-4A97-89B2-73C6CB663095}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD829F0-6787-413E-9BEE-D8C2B48C65B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>num_aug</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>s/epoch</t>
+  </si>
+  <si>
+    <t>9_300000</t>
+  </si>
+  <si>
+    <t>9_400000</t>
   </si>
 </sst>
 </file>
@@ -1546,11 +1552,10 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$V$2:$V$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+            <c:strRef>
+              <c:f>Sheet1!$V$2:$V$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1570,17 +1575,20 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>9_300000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9_400000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$2:$W$8</c:f>
+              <c:f>Sheet1!$W$2:$W$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>107</c:v>
                 </c:pt>
@@ -1601,6 +1609,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4654,9 +4665,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4949,8 +4960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5282,8 +5293,8 @@
       <c r="R8" t="s">
         <v>10</v>
       </c>
-      <c r="V8">
-        <v>9</v>
+      <c r="V8" t="s">
+        <v>13</v>
       </c>
       <c r="W8">
         <v>525</v>
@@ -5319,6 +5330,12 @@
       </c>
       <c r="R9" t="s">
         <v>11</v>
+      </c>
+      <c r="V9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W9">
+        <v>764</v>
       </c>
     </row>
   </sheetData>
